--- a/individual_results/avey/165.xlsx
+++ b/individual_results/avey/165.xlsx
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -719,9 +719,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -774,9 +772,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -838,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.17376534287144</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
